--- a/data/robust_linear_regression_results.xlsx
+++ b/data/robust_linear_regression_results.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Training Time</t>
+          <t>Training Time (Seconds)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -457,16 +457,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.128054</v>
+        <v>0.111458</v>
       </c>
       <c r="B2" t="n">
-        <v>0.028807</v>
+        <v>0.033223</v>
       </c>
       <c r="C2" t="n">
-        <v>3.418082</v>
+        <v>3.658099</v>
       </c>
       <c r="D2" t="n">
-        <v>0.165043</v>
+        <v>0.136613</v>
       </c>
     </row>
   </sheetData>

--- a/data/robust_linear_regression_results.xlsx
+++ b/data/robust_linear_regression_results.xlsx
@@ -457,16 +457,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.111458</v>
+        <v>0.146918</v>
       </c>
       <c r="B2" t="n">
-        <v>0.033223</v>
+        <v>0.041541</v>
       </c>
       <c r="C2" t="n">
-        <v>3.658099</v>
+        <v>3.450809</v>
       </c>
       <c r="D2" t="n">
-        <v>0.136613</v>
+        <v>0.115612</v>
       </c>
     </row>
   </sheetData>
